--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94A5F8-9C1B-48A1-9A84-96F287D308B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -24,17 +25,23 @@
     <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
     <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
   <si>
     <t>connection</t>
   </si>
@@ -694,12 +701,18 @@
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
+  </si>
+  <si>
+    <t>CapacityCredit</t>
+  </si>
+  <si>
+    <t>[fr]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -768,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,7 +793,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,19 +1116,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1172,18 +1184,18 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -1191,26 +1203,26 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1218,15 +1230,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -1248,7 +1260,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>137</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1272,71 +1284,71 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -1354,38 +1366,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E8" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E18" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E20" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -1410,8 +1422,11 @@
       <c r="H1" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>70</v>
       </c>
@@ -1436,8 +1451,11 @@
       <c r="H2" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -1489,7 +1507,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1541,7 +1559,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -1567,7 +1585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -1619,7 +1637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -1645,7 +1663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -1723,66 +1741,66 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1794,21 +1812,21 @@
       <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1820,21 +1838,21 @@
       <c r="F17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1846,118 +1864,118 @@
       <c r="F18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2009,7 +2027,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2130,25 +2148,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2177,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
@@ -2206,7 +2224,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2231,7 +2249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -2254,7 +2272,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -2277,7 +2295,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2300,7 +2318,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2323,7 +2341,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -2346,7 +2364,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -2371,7 +2389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -2446,7 +2464,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -2471,230 +2489,230 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>50</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22">
         <v>85</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22">
         <v>15</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="I14" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>56</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="22">
         <v>25.3</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>45</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="I15" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>85</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
         <v>75</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="I16" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>87</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="25">
         <v>51.7</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
         <v>55</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="I17" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>87</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="26">
+      <c r="C18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="25">
         <v>51.7</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>55</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="I18" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>87</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="23">
+      <c r="C19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="22">
         <v>62.02</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23">
+      <c r="E19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>55</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="I19" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="C20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="22">
         <v>42.47</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>55</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="I20" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="23">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
         <v>30</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="I21" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22">
         <v>30</v>
       </c>
-      <c r="I22" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -2717,7 +2735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -2849,25 +2867,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2913,7 +2931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -2922,55 +2940,55 @@
       <c r="D3" s="6">
         <v>75.97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F3" s="9">
         <v>1.919</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="9">
         <v>2.8380000000000001</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>24.633333333333336</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F5" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -2979,17 +2997,17 @@
       <c r="D6" s="6">
         <v>30.57</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -2998,17 +3016,17 @@
       <c r="D7" s="6">
         <v>34.31</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="9">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3017,46 +3035,46 @@
       <c r="D8" s="6">
         <v>45.56</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="9">
         <v>1.0289999999999999</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="6">
         <v>3935</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="12">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
         <v>425.4</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3069,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
@@ -3078,17 +3096,17 @@
       <c r="D11" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
@@ -3097,17 +3115,17 @@
       <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>196</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
@@ -3116,220 +3134,220 @@
       <c r="D13" s="7">
         <v>42</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="G13" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>1284</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="23">
         <v>32.1</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="G14" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>3749</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="23">
         <v>112</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="23">
         <v>1.67</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="G15" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3644</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="C16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="23">
         <v>33</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="23">
         <v>1.39</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="G16" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>952</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="24">
+      <c r="C17" s="25"/>
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E17" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23">
         <v>11.33</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>952</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24">
+      <c r="C18" s="25"/>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="23">
         <v>11.33</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>612.6</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="26">
         <v>11</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="23">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="G19" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>188.3</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="24">
+      <c r="C20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="23">
         <v>12</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="23">
         <v>1.944</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="G20" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1060</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="23">
         <v>13</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="G21" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>1494</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="C22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23">
         <v>42</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="23">
         <v>0</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
@@ -3345,14 +3363,14 @@
       <c r="E23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3368,14 +3386,14 @@
       <c r="E24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>1.67</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3391,14 +3409,14 @@
       <c r="E25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>0.83299999999999996</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
@@ -3414,14 +3432,14 @@
       <c r="E26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>1.944</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3444,7 +3462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -3480,25 +3498,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
@@ -3566,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -3588,7 +3606,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3623,163 +3641,163 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25">
         <v>290</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>0.01</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>0.93</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>0.93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>705.6</v>
       </c>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25">
         <v>71.64</v>
       </c>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>132</v>
       </c>
@@ -3790,7 +3808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>194</v>
       </c>
@@ -3801,12 +3819,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
@@ -3829,21 +3847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3857,11 +3875,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>148</v>
       </c>
       <c r="C2" t="s">
@@ -3871,336 +3889,336 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>454</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>378</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>247.5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>220</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>296</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>296</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>440</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>900</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>85</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>85</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>410</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>410</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>170</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>200</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>100</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>100</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>216</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>216</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>100</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2.4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>507</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>22.1</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>30</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>102</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4214,21 +4232,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -4236,7 +4254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -4244,7 +4262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4255,22 +4273,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4287,7 +4305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4304,14 +4322,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D3">
@@ -4321,14 +4339,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D4">
@@ -4338,14 +4356,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D5">
@@ -4355,14 +4373,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D6">
@@ -4372,14 +4390,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D7">
@@ -4389,14 +4407,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D8">
@@ -4406,14 +4424,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D9">
@@ -4423,14 +4441,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D10">
@@ -4440,14 +4458,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D11">
@@ -4457,14 +4475,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D12">
@@ -4474,14 +4492,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -4491,14 +4509,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D14">
@@ -4508,14 +4526,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D15">
@@ -4525,14 +4543,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D16">
@@ -4542,14 +4560,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D17">
@@ -4559,14 +4577,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D18">
@@ -4576,14 +4594,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D19">
@@ -4593,14 +4611,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D20">
@@ -4610,14 +4628,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D21">
@@ -4627,14 +4645,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D22">
@@ -4644,14 +4662,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D23">
@@ -4661,14 +4679,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D24">
@@ -4678,14 +4696,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D25">
@@ -4695,14 +4713,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D26">
@@ -4712,14 +4730,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D27">
@@ -4729,14 +4747,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D28">
@@ -4746,14 +4764,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D29">
@@ -4763,14 +4781,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D30">
@@ -4780,14 +4798,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D31">
@@ -4797,14 +4815,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D32">
@@ -4814,14 +4832,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D33">
@@ -4831,14 +4849,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D34">
@@ -4848,14 +4866,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D35">
@@ -4865,14 +4883,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D36">
@@ -4882,14 +4900,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D37">
@@ -4899,14 +4917,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D38">
@@ -4916,14 +4934,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D39">
@@ -4933,14 +4951,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D40">
@@ -4950,14 +4968,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D41">
@@ -4967,14 +4985,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D42">
@@ -4984,14 +5002,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D43">
@@ -5001,14 +5019,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D44">
@@ -5018,14 +5036,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D45">
@@ -5035,14 +5053,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D46">
@@ -5052,14 +5070,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D47">
@@ -5069,14 +5087,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D48">
@@ -5086,14 +5104,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D49">
@@ -5103,14 +5121,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D50">
@@ -5120,14 +5138,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D51">
@@ -5137,14 +5155,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D52">
@@ -5154,14 +5172,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D53">
@@ -5171,14 +5189,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D54">
@@ -5188,14 +5206,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D55">
@@ -5205,14 +5223,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D56">
@@ -5222,14 +5240,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D57">
@@ -5239,14 +5257,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D58">
@@ -5256,14 +5274,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D59">
@@ -5273,14 +5291,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D60">
@@ -5290,14 +5308,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D61">
@@ -5307,14 +5325,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D62">
@@ -5324,14 +5342,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D63">
@@ -5341,14 +5359,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B64" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D64">
@@ -5358,14 +5376,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D65">
@@ -5375,14 +5393,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B66" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D66">
@@ -5392,14 +5410,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D67">
@@ -5409,14 +5427,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D68">
@@ -5426,14 +5444,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D69">
@@ -5443,14 +5461,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D70">
@@ -5460,14 +5478,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D71">
@@ -5477,14 +5495,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D72">
@@ -5494,14 +5512,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D73">
@@ -5511,14 +5529,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D74">
@@ -5528,14 +5546,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>185</v>
       </c>
       <c r="D75">
@@ -5545,14 +5563,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>186</v>
       </c>
       <c r="D76">
@@ -5562,14 +5580,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>187</v>
       </c>
       <c r="D77">
@@ -5579,14 +5597,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>188</v>
       </c>
       <c r="D78">
@@ -5596,14 +5614,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D79">
@@ -5613,14 +5631,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D80">
@@ -5630,14 +5648,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>191</v>
       </c>
       <c r="D81">
@@ -5647,14 +5665,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>192</v>
       </c>
       <c r="D82">
@@ -5664,14 +5682,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>193</v>
       </c>
       <c r="D83">
@@ -5681,14 +5699,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D84">
@@ -5698,14 +5716,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D85">
@@ -5715,14 +5733,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D86">
@@ -5732,14 +5750,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D87">
@@ -5749,14 +5767,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B88" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D88">
@@ -5766,14 +5784,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D89">
@@ -5783,14 +5801,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D90">
@@ -5800,14 +5818,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D91">
@@ -5817,14 +5835,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B92" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D92">
@@ -5834,14 +5852,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B93" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D93">
@@ -5851,14 +5869,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
         <v>84</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D94">
@@ -5868,14 +5886,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D95">
@@ -5885,14 +5903,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D96">
@@ -5902,14 +5920,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D97">
@@ -5919,14 +5937,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>85</v>
       </c>
       <c r="D98">
@@ -5943,18 +5961,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5965,7 +5983,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -5976,7 +5994,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -5987,7 +6005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -6004,20 +6022,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -6028,7 +6046,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6039,7 +6057,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>185</v>
       </c>
@@ -6050,7 +6068,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -6061,7 +6079,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -6072,7 +6090,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -6083,7 +6101,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>189</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -6105,7 +6123,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>191</v>
       </c>
@@ -6116,7 +6134,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>192</v>
       </c>
@@ -6127,7 +6145,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -6138,7 +6156,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6149,7 +6167,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6160,7 +6178,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -6171,7 +6189,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6182,7 +6200,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -6204,7 +6222,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -6215,7 +6233,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -6226,7 +6244,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -6237,7 +6255,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -6248,7 +6266,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -6259,7 +6277,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6270,7 +6288,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6281,7 +6299,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -6292,7 +6310,7 @@
         <v>4.1667000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -6310,26 +6328,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6364,7 +6382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6434,7 +6452,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -6500,7 +6518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -6535,7 +6553,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -6555,7 +6573,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -6590,7 +6608,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -6625,7 +6643,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -6671,7 +6689,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -6694,7 +6712,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -6717,7 +6735,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -6747,20 +6765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6774,7 +6792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -6788,7 +6806,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6802,7 +6820,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -6816,7 +6834,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -6830,7 +6848,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -6851,20 +6869,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D8" sqref="D1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6874,11 +6892,11 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -6888,11 +6906,11 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -6902,9 +6920,11 @@
       <c r="C3" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -6914,9 +6934,11 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -6926,8 +6948,11 @@
       <c r="C5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2031</v>
       </c>
@@ -6937,8 +6962,11 @@
       <c r="C6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2036</v>
       </c>
@@ -6948,8 +6976,11 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2041</v>
       </c>
@@ -6958,6 +6989,9 @@
       </c>
       <c r="C8" t="s">
         <v>87</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6967,20 +7001,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -6988,7 +7022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -6996,7 +7030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.09</v>
       </c>
@@ -7010,28 +7044,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7069,7 +7103,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +7141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7134,7 +7168,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -7163,7 +7197,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7192,7 +7226,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -7206,7 +7240,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -7226,7 +7260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -7255,7 +7289,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -7287,7 +7321,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -7301,7 +7335,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -7322,19 +7356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -7348,7 +7382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -7362,7 +7396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>

--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -1,47 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C94A5F8-9C1B-48A1-9A84-96F287D308B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF0C7B-41C2-4E8A-98E2-B03DA98E5D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
     <sheet name="representativeDays" sheetId="16" r:id="rId2"/>
     <sheet name="timesOfDay" sheetId="18" r:id="rId3"/>
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
-    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
-    <sheet name="Demand" sheetId="3" r:id="rId6"/>
-    <sheet name="DiscountRate" sheetId="5" r:id="rId7"/>
-    <sheet name="Fuels" sheetId="6" r:id="rId8"/>
-    <sheet name="FuelsExisting" sheetId="7" r:id="rId9"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId10"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId11"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId12"/>
-    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId13"/>
-    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId14"/>
-    <sheet name="ReserveMargin" sheetId="13" r:id="rId15"/>
-    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId16"/>
+    <sheet name="Demand" sheetId="3" r:id="rId5"/>
+    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
+    <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
+    <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
+    <sheet name="Emission" sheetId="20" r:id="rId9"/>
+    <sheet name="Fuels" sheetId="6" r:id="rId10"/>
+    <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId13"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
+    <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
+    <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
+    <sheet name="capacityFactorTOD" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="237">
   <si>
     <t>connection</t>
   </si>
@@ -707,6 +703,51 @@
   </si>
   <si>
     <t>[fr]</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>vintage</t>
+  </si>
+  <si>
+    <t>tech_rate</t>
+  </si>
+  <si>
+    <t>tech_rate_notes</t>
+  </si>
+  <si>
+    <t>[name]</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>emis_comm</t>
+  </si>
+  <si>
+    <t>emis_limit</t>
+  </si>
+  <si>
+    <t>emis_limit_units</t>
+  </si>
+  <si>
+    <t>emis_limit_notes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>StorageDuration</t>
+  </si>
+  <si>
+    <t>[hr]</t>
   </si>
 </sst>
 </file>
@@ -1383,771 +1424,375 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3">
+        <v>5.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>2.66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>4.03</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>2.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4">
+        <v>90.37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>11.46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>2.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5">
+        <v>69.34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>39.51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>7.19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>3.05</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>67.58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>7.62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="1">
+        <v>63.3</v>
+      </c>
+      <c r="H9">
+        <v>50.3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -2866,7 +2511,787 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:H15 D19:H28">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -3497,7 +3922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3846,7 +4271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -4231,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4272,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
@@ -6765,6 +7190,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="3">
+        <v>66.999600000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2026</v>
+      </c>
+      <c r="B5" s="3">
+        <v>66.103200000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2031</v>
+      </c>
+      <c r="B6" s="3">
+        <v>65.77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -6868,144 +7425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D1:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="3">
-        <v>66.999600000000001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2026</v>
-      </c>
-      <c r="B5" s="3">
-        <v>66.103200000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2031</v>
-      </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7044,367 +7469,90 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE35283-3BE3-4F5A-8433-3D888AE7F852}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>5.7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>2.66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4">
-        <v>4.03</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4">
-        <v>2.7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>90.37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5">
-        <v>11.46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
-        <v>2.8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5">
-        <v>69.34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>39.51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8">
-        <v>7.19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8">
-        <v>3.05</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8">
-        <v>67.58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9">
-        <v>7.62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="1">
-        <v>63.3</v>
-      </c>
-      <c r="H9">
-        <v>50.3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F44819-0382-4850-9146-7C529C159FEB}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="E13" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2015</v>
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sensitivity/data/data.xlsx
+++ b/examples/sensitivity/data/data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CF0C7B-41C2-4E8A-98E2-B03DA98E5D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BDEF4-6481-43E6-A41F-7EC761A5C1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
     <sheet name="representativeDays" sheetId="16" r:id="rId2"/>
     <sheet name="timesOfDay" sheetId="18" r:id="rId3"/>
     <sheet name="Connections" sheetId="1" r:id="rId4"/>
-    <sheet name="Demand" sheetId="3" r:id="rId5"/>
-    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId6"/>
+    <sheet name="ConnectionsExisting" sheetId="2" r:id="rId5"/>
+    <sheet name="Demand" sheetId="3" r:id="rId6"/>
     <sheet name="DiscountRateGlobal" sheetId="5" r:id="rId7"/>
     <sheet name="DiscountRateTech" sheetId="19" r:id="rId8"/>
     <sheet name="Emission" sheetId="20" r:id="rId9"/>
     <sheet name="Fuels" sheetId="6" r:id="rId10"/>
     <sheet name="FuelsExisting" sheetId="7" r:id="rId11"/>
-    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId12"/>
-    <sheet name="PowerPlants" sheetId="8" r:id="rId13"/>
-    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId14"/>
+    <sheet name="PowerPlants" sheetId="8" r:id="rId12"/>
+    <sheet name="PowerPlantsCosts" sheetId="10" r:id="rId13"/>
+    <sheet name="PowerPlantsPerformance" sheetId="12" r:id="rId14"/>
     <sheet name="PowerPlantsConstraints" sheetId="9" r:id="rId15"/>
     <sheet name="PowerPlantsExisting" sheetId="11" r:id="rId16"/>
     <sheet name="ReserveMargin" sheetId="13" r:id="rId17"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="248">
   <si>
     <t>connection</t>
   </si>
@@ -150,9 +150,6 @@
     <t>CostVariableIncr</t>
   </si>
   <si>
-    <t>Ref_CostVariableIncr</t>
-  </si>
-  <si>
     <t>CapacityFactor</t>
   </si>
   <si>
@@ -748,6 +745,42 @@
   </si>
   <si>
     <t>[hr]</t>
+  </si>
+  <si>
+    <t>CostInvestIncr</t>
+  </si>
+  <si>
+    <t>CostFixedIncr</t>
+  </si>
+  <si>
+    <t>Fuel 3 &amp; Fuel4</t>
+  </si>
+  <si>
+    <t>Fuel1 &amp; Fuel4</t>
+  </si>
+  <si>
+    <t>Fuel 1 &amp; Fuel4</t>
+  </si>
+  <si>
+    <t>[%/yr]</t>
+  </si>
+  <si>
+    <t>FirstBuild</t>
+  </si>
+  <si>
+    <t>Ref_test</t>
+  </si>
+  <si>
+    <t>Ref_test3</t>
+  </si>
+  <si>
+    <t>Ref_test1</t>
+  </si>
+  <si>
+    <t>Ref_BuildYears</t>
+  </si>
+  <si>
+    <t>LastBuild</t>
   </si>
 </sst>
 </file>
@@ -789,7 +822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +841,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -822,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -862,6 +901,8 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1177,13 +1218,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -1191,218 +1232,218 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>161</v>
-      </c>
-      <c r="E11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1425,27 +1466,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1453,16 +1494,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>236</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
@@ -1480,62 +1521,77 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="M2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>5.7</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>2.66</v>
       </c>
-      <c r="E3" t="s">
-        <v>92</v>
+      <c r="D3" t="s">
+        <v>238</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -1545,70 +1601,64 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>4.03</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>2.7</v>
       </c>
-      <c r="E4" t="s">
-        <v>92</v>
+      <c r="D4" t="s">
+        <v>239</v>
       </c>
       <c r="H4">
         <v>90.37</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>11.46</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>2.8</v>
       </c>
-      <c r="E5" t="s">
-        <v>92</v>
+      <c r="D5" t="s">
+        <v>239</v>
       </c>
       <c r="H5">
         <v>69.34</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1617,12 +1667,12 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1631,79 +1681,85 @@
         <v>39.51</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7">
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>7.19</v>
       </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>3.05</v>
       </c>
-      <c r="E8" t="s">
-        <v>92</v>
+      <c r="D8" t="s">
+        <v>239</v>
       </c>
       <c r="H8">
         <v>67.58</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>7.62</v>
       </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E9" t="s">
-        <v>92</v>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63.3</v>
       </c>
       <c r="F9" s="1">
-        <v>63.3</v>
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
       </c>
       <c r="H9">
         <v>50.3</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="M9">
+        <v>2021</v>
+      </c>
+      <c r="N9">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1712,12 +1768,12 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1726,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -1764,21 +1820,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1">
         <v>1920</v>
@@ -1793,6 +1849,1607 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:H15 D19:H28">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>75.97</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.919</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>19.599999999999998</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>24.633333333333336</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>30.57</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>34.31</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>45.56</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3935</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>425.4</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1284</v>
+      </c>
+      <c r="C14" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="23">
+        <v>32.1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="23">
+        <v>3749</v>
+      </c>
+      <c r="C15" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="23">
+        <v>112</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.67</v>
+      </c>
+      <c r="I15" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="23">
+        <v>3644</v>
+      </c>
+      <c r="C16" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="23">
+        <v>33</v>
+      </c>
+      <c r="F16" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1.39</v>
+      </c>
+      <c r="I16" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="23">
+        <v>952</v>
+      </c>
+      <c r="C17" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="I17" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="23">
+        <v>952</v>
+      </c>
+      <c r="C18" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="23">
+        <v>11.33</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="26">
+        <v>612.6</v>
+      </c>
+      <c r="C19" s="26">
+        <v>-4</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="26">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I19" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="23">
+        <v>188.3</v>
+      </c>
+      <c r="C20" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="23">
+        <v>12</v>
+      </c>
+      <c r="F20" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.944</v>
+      </c>
+      <c r="I20" s="23">
+        <v>-6</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="23">
+        <v>13</v>
+      </c>
+      <c r="F21" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1494</v>
+      </c>
+      <c r="C22" s="23">
+        <v>-4</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="23">
+        <v>42</v>
+      </c>
+      <c r="F22" s="23">
+        <v>-5</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1284</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="7">
+        <v>32.1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3749</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="7">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1.67</v>
+      </c>
+      <c r="I24" s="27">
+        <v>-6</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="7">
+        <v>860.9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="7">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="I25" s="27">
+        <v>-6</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="7">
+        <v>305.2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="7">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="27">
+        <v>1.944</v>
+      </c>
+      <c r="I26" s="27">
+        <v>-6</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1060</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="7">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1494</v>
+      </c>
+      <c r="C28" s="7">
+        <v>-4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="7">
+        <v>42</v>
+      </c>
+      <c r="F28" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -1816,74 +3473,74 @@
         <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9">
         <v>91.4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1891,24 +3548,24 @@
         <v>75</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="9">
         <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="9">
         <v>29.9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1919,19 +3576,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9">
         <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="9">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1942,19 +3599,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="9">
         <v>89</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="9">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1965,19 +3622,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9">
         <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="9">
         <v>34.6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1988,19 +3645,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9">
         <v>78.5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="9">
         <v>34.1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2011,19 +3668,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9">
         <v>63</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" s="9">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2031,24 +3688,24 @@
         <v>100</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="9">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="6">
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2056,24 +3713,24 @@
         <v>45</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="9">
         <v>93</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="9">
         <v>45.5</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2081,24 +3738,24 @@
         <v>55</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="6">
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2106,24 +3763,24 @@
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6">
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2131,12 +3788,12 @@
         <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="22">
         <v>50</v>
@@ -2146,7 +3803,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2154,24 +3811,24 @@
         <v>15</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="22">
         <v>56</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="22">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -2179,24 +3836,24 @@
         <v>45</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="22">
         <v>85</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="25">
         <v>38.799999999999997</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -2204,24 +3861,24 @@
         <v>75</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="22">
         <v>87</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="25">
         <v>51.7</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -2229,24 +3886,24 @@
         <v>55</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="22">
         <v>87</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="25">
         <v>51.7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -2254,24 +3911,24 @@
         <v>55</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="24">
         <v>87</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="22">
         <v>62.02</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -2279,24 +3936,24 @@
         <v>55</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="22">
         <v>30</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="22">
         <v>42.47</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -2304,24 +3961,24 @@
         <v>55</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="22">
         <v>22</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -2329,24 +3986,24 @@
         <v>30</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="22">
         <v>31</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -2354,12 +4011,12 @@
         <v>30</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="6">
         <v>50</v>
@@ -2369,7 +4026,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2377,24 +4034,24 @@
         <v>15</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="6">
         <v>56</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" s="6">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
@@ -2402,24 +4059,24 @@
         <v>45</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="10">
         <v>87</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D25" s="9">
         <v>54.17</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
@@ -2427,24 +4084,24 @@
         <v>55</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="6">
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="9">
         <v>37.6</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="9"/>
@@ -2452,24 +4109,24 @@
         <v>55</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6">
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
@@ -2477,24 +4134,24 @@
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="6">
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
@@ -2502,1419 +4159,8 @@
         <v>30</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D3:H15 D19:H28">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:H18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>75.97</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1.919</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>19.599999999999998</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2.8380000000000001</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>24.633333333333336</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>30.57</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>34.31</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>45.56</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3935</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="12">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>425.4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <v>13</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7">
-        <v>42</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="23">
-        <v>1284</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="23">
-        <v>32.1</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="23">
-        <v>3749</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="23">
-        <v>112</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="23">
-        <v>1.67</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="23">
-        <v>3644</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="23">
-        <v>33</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1.39</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="23">
-        <v>952</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="23">
-        <v>11.33</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="23">
-        <v>952</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="23">
-        <v>11.33</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="26">
-        <v>612.6</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="26">
-        <v>11</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="23">
-        <v>188.3</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="23">
-        <v>12</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="23">
-        <v>1.944</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="23">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="23">
-        <v>13</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="23">
-        <v>1494</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="23">
-        <v>42</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1284</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="7">
-        <v>32.1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3749</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="7">
-        <v>112</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="27">
-        <v>1.67</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="7">
-        <v>860.9</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="7">
-        <v>11</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="27">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="7">
-        <v>305.2</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="7">
-        <v>12</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="27">
-        <v>1.944</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1060</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="7">
-        <v>13</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="7">
-        <v>1494</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="7">
-        <v>42</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3924,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F28"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3939,9 +4185,12 @@
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3963,99 +4212,117 @@
       <c r="G1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="6">
         <v>0.01</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6">
         <v>0.93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6">
         <v>0.67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="6">
         <v>0.73</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6">
         <v>0.92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4063,51 +4330,62 @@
         <v>102.7</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>20</v>
+      </c>
       <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>2026</v>
+      </c>
+      <c r="I14">
+        <v>2036</v>
+      </c>
+      <c r="J14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -4115,74 +4393,89 @@
         <v>290</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="25">
         <v>0.01</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="25">
         <v>0.93</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="25">
         <v>0.93</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="22">
         <v>1</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -4190,10 +4483,13 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -4203,10 +4499,13 @@
         <v>705.6</v>
       </c>
       <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -4216,50 +4515,53 @@
         <v>71.64</v>
       </c>
       <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D24">
         <v>290</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="F27">
         <v>705.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="3">
         <v>71.64</v>
@@ -4302,21 +4604,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="13">
         <v>454</v>
@@ -4325,12 +4627,12 @@
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="13">
         <v>378</v>
@@ -4339,12 +4641,12 @@
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="13">
         <v>247.5</v>
@@ -4353,12 +4655,12 @@
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="13">
         <v>220</v>
@@ -4367,12 +4669,12 @@
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="15">
         <v>296</v>
@@ -4381,12 +4683,12 @@
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="15">
         <v>296</v>
@@ -4395,12 +4697,12 @@
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="15">
         <v>440</v>
@@ -4409,12 +4711,12 @@
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="13">
         <v>900</v>
@@ -4423,12 +4725,12 @@
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="13">
         <v>85</v>
@@ -4437,12 +4739,12 @@
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="13">
         <v>85</v>
@@ -4451,12 +4753,12 @@
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="13">
         <v>410</v>
@@ -4465,12 +4767,12 @@
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="13">
         <v>410</v>
@@ -4479,12 +4781,12 @@
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="15">
         <v>170</v>
@@ -4493,12 +4795,12 @@
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="15">
         <v>200</v>
@@ -4507,12 +4809,12 @@
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="15">
         <v>100</v>
@@ -4521,12 +4823,12 @@
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="15">
         <v>100</v>
@@ -4535,12 +4837,12 @@
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="15">
         <v>216</v>
@@ -4549,12 +4851,12 @@
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="15">
         <v>216</v>
@@ -4563,12 +4865,12 @@
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="13">
         <v>100</v>
@@ -4577,12 +4879,12 @@
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="13">
         <v>2.4</v>
@@ -4591,12 +4893,12 @@
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="13">
         <v>507</v>
@@ -4605,12 +4907,12 @@
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="16">
         <v>22.1</v>
@@ -4619,12 +4921,12 @@
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="16">
         <v>30</v>
@@ -4633,12 +4935,12 @@
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="13">
         <v>102</v>
@@ -4647,7 +4949,7 @@
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4673,18 +4975,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4718,13 +5020,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -4732,1651 +5034,1651 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>1.60166683138</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>2.95581809344</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>3.7850790856600001</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>3.7761824652699998</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>3.4941576425399998</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>2.8292392133100002</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>2.31085050602</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1.6195855478600001</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0.66482724319599995</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>1.5458351067</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>2.4637406089799998</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>3.00512030807</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>3.5308931214800001</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>3.69605507635</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>3.3774587455399998</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>2.7769065497900001</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>1.95868836497</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>1.0106574399199999</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60">
         <v>1.5905843713600001</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61">
         <v>1.96580702607</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>2.0734215959900002</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63">
         <v>1.9751479163200001</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>1.86108929812</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65">
         <v>1.5555752169499999</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66">
         <v>1.4613173328</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67">
         <v>1.5585260732399999</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>1.4215414641899999</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>1.1530588855199999</v>
       </c>
       <c r="E69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70">
         <v>0.95588318613500001</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71">
         <v>0.71502453780499997</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>0.63309777596200001</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D73">
         <v>0.57011478292399997</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74">
         <v>0.43639495105100001</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D84">
         <v>1.7770759889000001</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85">
         <v>1.94190941189</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D86">
         <v>1.9646325597500001</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D87">
         <v>1.9102379085200001</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88">
         <v>1.8179456867899999</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89">
         <v>1.81966855524</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <v>1.8376376328499999</v>
       </c>
       <c r="E90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91">
         <v>1.6965337710899999</v>
       </c>
       <c r="E91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D92">
         <v>1.7009312804000001</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D93">
         <v>1.3156820974500001</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94">
         <v>0.84444574668700001</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D95">
         <v>0.49803910411500002</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96">
         <v>0.18415488182100001</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D97">
         <v>0.20710885994700001</v>
       </c>
       <c r="E97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="D98">
         <v>0.261560949057</v>
       </c>
       <c r="E98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6399,29 +6701,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.53</v>
@@ -6432,7 +6734,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.47</v>
@@ -6462,29 +6764,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>3.9199999999999999E-2</v>
@@ -6495,7 +6797,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4">
         <v>3.7499999999999999E-2</v>
@@ -6506,7 +6808,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5">
         <v>3.6400000000000002E-2</v>
@@ -6517,7 +6819,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>3.5700000000000003E-2</v>
@@ -6528,7 +6830,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7">
         <v>3.5700000000000003E-2</v>
@@ -6539,7 +6841,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>3.6900000000000002E-2</v>
@@ -6550,7 +6852,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>3.8600000000000002E-2</v>
@@ -6561,7 +6863,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10">
         <v>3.85E-2</v>
@@ -6572,7 +6874,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11">
         <v>4.0500000000000001E-2</v>
@@ -6583,7 +6885,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>4.2099999999999999E-2</v>
@@ -6594,7 +6896,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>4.3099999999999999E-2</v>
@@ -6605,7 +6907,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>4.3900000000000002E-2</v>
@@ -6616,7 +6918,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>4.3999999999999997E-2</v>
@@ -6627,7 +6929,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>4.3900000000000002E-2</v>
@@ -6638,7 +6940,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>4.3799999999999999E-2</v>
@@ -6649,7 +6951,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>4.3700000000000003E-2</v>
@@ -6660,7 +6962,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19">
         <v>4.36E-2</v>
@@ -6671,7 +6973,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>4.3099999999999999E-2</v>
@@ -6682,7 +6984,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>4.4999999999999998E-2</v>
@@ -6693,7 +6995,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>4.7E-2</v>
@@ -6704,7 +7006,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>4.6399999999999997E-2</v>
@@ -6715,7 +7017,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>4.58E-2</v>
@@ -6726,7 +7028,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>4.3999999999999997E-2</v>
@@ -6737,7 +7039,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3">
         <v>4.159999999999997E-2</v>
@@ -6754,10 +7056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K6"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6765,14 +7067,16 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6791,396 +7095,478 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3">
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3">
         <v>0.86</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1">
         <v>2084.1332580463013</v>
       </c>
-      <c r="I3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>197</v>
       </c>
-      <c r="B4" t="s">
-        <v>198</v>
-      </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>0.4</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4">
+      <c r="H4" s="3"/>
+      <c r="I4">
         <v>688.39634941329859</v>
       </c>
-      <c r="I4" t="s">
-        <v>199</v>
-      </c>
       <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="1">
         <v>323.88212908717634</v>
       </c>
-      <c r="I5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="K5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="1">
         <v>539.80354847862725</v>
       </c>
-      <c r="I6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6">
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6">
         <v>30</v>
       </c>
-      <c r="K6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="K7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8">
         <v>4531.3620000000001</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>199</v>
       </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>200</v>
-      </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9">
         <v>7746.9369999999999</v>
       </c>
-      <c r="I9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9">
+      <c r="K9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L9">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
         <v>213</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>214</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13">
         <v>30</v>
       </c>
-      <c r="K13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14">
         <v>30</v>
       </c>
-      <c r="K14" t="s">
-        <v>184</v>
+      <c r="M14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -7190,138 +7576,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="3">
-        <v>66.999600000000001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2026</v>
-      </c>
-      <c r="B5" s="3">
-        <v>66.103200000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2031</v>
-      </c>
-      <c r="B6" s="3">
-        <v>65.77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -7351,21 +7605,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>3080</v>
@@ -7374,12 +7628,12 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4">
         <v>3068</v>
@@ -7388,12 +7642,12 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>2853</v>
@@ -7402,12 +7656,12 @@
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6">
         <v>2853</v>
@@ -7416,7 +7670,139 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="3">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="3">
+        <v>66.999600000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2026</v>
+      </c>
+      <c r="B5" s="3">
+        <v>66.103200000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2031</v>
+      </c>
+      <c r="B6" s="3">
+        <v>65.77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7441,7 +7827,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
@@ -7449,10 +7835,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7460,7 +7846,7 @@
         <v>0.09</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7480,30 +7866,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7523,36 +7909,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
         <v>227</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>230</v>
-      </c>
-      <c r="E1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
